--- a/Code/Results/Cases/Case_5_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.211372508801105</v>
+        <v>1.357478060742437</v>
       </c>
       <c r="C2">
-        <v>0.3102506154116327</v>
+        <v>0.1530760410243772</v>
       </c>
       <c r="D2">
-        <v>0.0497394773355424</v>
+        <v>0.1194354720364359</v>
       </c>
       <c r="E2">
-        <v>0.04352366513018424</v>
+        <v>0.1245758532213168</v>
       </c>
       <c r="F2">
-        <v>0.8690219586562762</v>
+        <v>1.752131314218971</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06311680066386938</v>
+        <v>0.161299038329541</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1707977907192273</v>
+        <v>0.2744277187219382</v>
       </c>
       <c r="M2">
-        <v>0.3916617882977178</v>
+        <v>0.3184569435170133</v>
       </c>
       <c r="N2">
-        <v>0.8997916637771866</v>
+        <v>1.7218215251701</v>
       </c>
       <c r="O2">
-        <v>2.314597014460048</v>
+        <v>4.575683049327694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.929186241949594</v>
+        <v>1.279850709967377</v>
       </c>
       <c r="C3">
-        <v>0.280605536377081</v>
+        <v>0.1432450312874494</v>
       </c>
       <c r="D3">
-        <v>0.04747327911698207</v>
+        <v>0.1192628499359962</v>
       </c>
       <c r="E3">
-        <v>0.04434637060457636</v>
+        <v>0.125268345086099</v>
       </c>
       <c r="F3">
-        <v>0.8378340591689692</v>
+        <v>1.756729400771874</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06490116432982873</v>
+        <v>0.1622816523651527</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.156023921147991</v>
+        <v>0.2715942972574581</v>
       </c>
       <c r="M3">
-        <v>0.3441052128441697</v>
+        <v>0.3060752846758419</v>
       </c>
       <c r="N3">
-        <v>0.9367560462040814</v>
+        <v>1.738201905344983</v>
       </c>
       <c r="O3">
-        <v>2.232836678411047</v>
+        <v>4.589442455110571</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.756636873329711</v>
+        <v>1.232583085629301</v>
       </c>
       <c r="C4">
-        <v>0.262368883492087</v>
+        <v>0.137161272822425</v>
       </c>
       <c r="D4">
-        <v>0.04611477563702948</v>
+        <v>0.1191855449299304</v>
       </c>
       <c r="E4">
-        <v>0.04488688996455448</v>
+        <v>0.1257211810429499</v>
       </c>
       <c r="F4">
-        <v>0.8202298769464988</v>
+        <v>1.760423353963603</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06604100327143048</v>
+        <v>0.1629171745434213</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1470750562751064</v>
+        <v>0.2699455850554813</v>
       </c>
       <c r="M4">
-        <v>0.3150731307622721</v>
+        <v>0.2985791830747075</v>
       </c>
       <c r="N4">
-        <v>0.9606035388183969</v>
+        <v>1.748849901457888</v>
       </c>
       <c r="O4">
-        <v>2.187110376648292</v>
+        <v>4.600302111763824</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.686474250383384</v>
+        <v>1.213422029166651</v>
       </c>
       <c r="C5">
-        <v>0.2549266617844381</v>
+        <v>0.1346702756366653</v>
       </c>
       <c r="D5">
-        <v>0.04556919254308767</v>
+        <v>0.1191612859694118</v>
       </c>
       <c r="E5">
-        <v>0.045115952365407</v>
+        <v>0.1259126794800829</v>
       </c>
       <c r="F5">
-        <v>0.8134263779657545</v>
+        <v>1.762147729475636</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06651655635124776</v>
+        <v>0.1631842639411922</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.143457249101246</v>
+        <v>0.2692967146946259</v>
       </c>
       <c r="M5">
-        <v>0.3032797438000188</v>
+        <v>0.2955514316987973</v>
       </c>
       <c r="N5">
-        <v>0.9706041465201736</v>
+        <v>1.753337581230131</v>
       </c>
       <c r="O5">
-        <v>2.169546648137015</v>
+        <v>4.605333945374014</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.674832262054309</v>
+        <v>1.210246482883036</v>
       </c>
       <c r="C6">
-        <v>0.2536901888864946</v>
+        <v>0.1342559374007664</v>
       </c>
       <c r="D6">
-        <v>0.04547907562732689</v>
+        <v>0.1191576961640237</v>
       </c>
       <c r="E6">
-        <v>0.04515451646651103</v>
+        <v>0.1259448986475755</v>
       </c>
       <c r="F6">
-        <v>0.8123185140962619</v>
+        <v>1.762447294712274</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06659618774029807</v>
+        <v>0.1632291040971876</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.142858210328086</v>
+        <v>0.2691903621091924</v>
       </c>
       <c r="M6">
-        <v>0.3013235864132326</v>
+        <v>0.2950503120599279</v>
       </c>
       <c r="N6">
-        <v>0.9722816101199427</v>
+        <v>1.754091730599622</v>
       </c>
       <c r="O6">
-        <v>2.166693276288754</v>
+        <v>4.606206107381212</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.755690052077142</v>
+        <v>1.232324262673018</v>
       </c>
       <c r="C7">
-        <v>0.2622685606724815</v>
+        <v>0.1371277260433459</v>
       </c>
       <c r="D7">
-        <v>0.04610738558994143</v>
+        <v>0.1191851883962975</v>
       </c>
       <c r="E7">
-        <v>0.04488994369151911</v>
+        <v>0.1257237354431089</v>
       </c>
       <c r="F7">
-        <v>0.8201366464972111</v>
+        <v>1.76044572238294</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06604737204857658</v>
+        <v>0.1629207437535092</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1470261504906958</v>
+        <v>0.269936740923626</v>
       </c>
       <c r="M7">
-        <v>0.3149139356270538</v>
+        <v>0.2985382402327161</v>
       </c>
       <c r="N7">
-        <v>0.9607372753146635</v>
+        <v>1.748909822357838</v>
       </c>
       <c r="O7">
-        <v>2.186869244089024</v>
+        <v>4.600367517287083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.11390968970403</v>
+        <v>1.330630759737573</v>
       </c>
       <c r="C8">
-        <v>0.300034905595453</v>
+        <v>0.1496962338580232</v>
       </c>
       <c r="D8">
-        <v>0.04895108633874656</v>
+        <v>0.1193700161123807</v>
       </c>
       <c r="E8">
-        <v>0.04379993120740977</v>
+        <v>0.1248088949287354</v>
       </c>
       <c r="F8">
-        <v>0.8579363753168749</v>
+        <v>1.753536082980425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06372283038103665</v>
+        <v>0.1616311702708058</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1656772243435753</v>
+        <v>0.2734319256642124</v>
       </c>
       <c r="M8">
-        <v>0.3752264659210809</v>
+        <v>0.3141658296617535</v>
       </c>
       <c r="N8">
-        <v>0.9122937800691631</v>
+        <v>1.727346996114779</v>
       </c>
       <c r="O8">
-        <v>2.285443220432342</v>
+        <v>4.579926865676526</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.823371129023599</v>
+        <v>1.526502347137637</v>
       </c>
       <c r="C9">
-        <v>0.3739205143265565</v>
+        <v>0.1739620133617734</v>
       </c>
       <c r="D9">
-        <v>0.05480222687433667</v>
+        <v>0.1199588316441051</v>
       </c>
       <c r="E9">
-        <v>0.04194773441433952</v>
+        <v>0.1232336408118266</v>
       </c>
       <c r="F9">
-        <v>0.9451955790370761</v>
+        <v>1.746891606093811</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.059518216115515</v>
+        <v>0.159357114871824</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2033126277737765</v>
+        <v>0.2810040988719749</v>
       </c>
       <c r="M9">
-        <v>0.4950663475620587</v>
+        <v>0.3456458571932828</v>
       </c>
       <c r="N9">
-        <v>0.8267577119315312</v>
+        <v>1.689742833054538</v>
       </c>
       <c r="O9">
-        <v>2.51689135699749</v>
+        <v>4.558976016853336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.350894725248111</v>
+        <v>1.672245089164278</v>
       </c>
       <c r="C10">
-        <v>0.4282520679432196</v>
+        <v>0.191553616241265</v>
       </c>
       <c r="D10">
-        <v>0.0592885564121346</v>
+        <v>0.1205278997622869</v>
       </c>
       <c r="E10">
-        <v>0.04076756575951634</v>
+        <v>0.1222088324085897</v>
       </c>
       <c r="F10">
-        <v>1.018604254084337</v>
+        <v>1.746217339310931</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05664872341330662</v>
+        <v>0.157840767748525</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2317457392252322</v>
+        <v>0.2870005086179646</v>
       </c>
       <c r="M10">
-        <v>0.5844254826753001</v>
+        <v>0.369273430470983</v>
       </c>
       <c r="N10">
-        <v>0.7701606605174049</v>
+        <v>1.664962582492912</v>
       </c>
       <c r="O10">
-        <v>2.714099460588301</v>
+        <v>4.555254460797215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.592729425144</v>
+        <v>1.738936320920345</v>
       </c>
       <c r="C11">
-        <v>0.4530169125964392</v>
+        <v>0.1995043562099568</v>
       </c>
       <c r="D11">
-        <v>0.06137504907160718</v>
+        <v>0.1208161000314618</v>
       </c>
       <c r="E11">
-        <v>0.04027147441508028</v>
+        <v>0.1217712239271433</v>
       </c>
       <c r="F11">
-        <v>1.054327018623539</v>
+        <v>1.746823906355829</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05539192629769207</v>
+        <v>0.1571842709706903</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2448831474992659</v>
+        <v>0.2898215493158602</v>
       </c>
       <c r="M11">
-        <v>0.625448339837547</v>
+        <v>0.3801287789972534</v>
       </c>
       <c r="N11">
-        <v>0.7458832852658404</v>
+        <v>1.654306541597848</v>
       </c>
       <c r="O11">
-        <v>2.810645483181446</v>
+        <v>4.556097645374962</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.684616429920709</v>
+        <v>1.764245798480147</v>
       </c>
       <c r="C12">
-        <v>0.4624051009519405</v>
+        <v>0.2025075466328019</v>
       </c>
       <c r="D12">
-        <v>0.06217213782644393</v>
+        <v>0.120929422833548</v>
       </c>
       <c r="E12">
-        <v>0.04008962236544455</v>
+        <v>0.1216096098854189</v>
       </c>
       <c r="F12">
-        <v>1.068216736037712</v>
+        <v>1.747184865425695</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05492307778779093</v>
+        <v>0.1569404467191866</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2498900096963581</v>
+        <v>0.2909031176539401</v>
       </c>
       <c r="M12">
-        <v>0.6410438277319059</v>
+        <v>0.3842545988468089</v>
       </c>
       <c r="N12">
-        <v>0.7369116478434066</v>
+        <v>1.650359984906693</v>
       </c>
       <c r="O12">
-        <v>2.848271461922394</v>
+        <v>4.556781690891057</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.664812456552056</v>
+        <v>1.758792528258482</v>
       </c>
       <c r="C13">
-        <v>0.4603826752893099</v>
+        <v>0.2018610952586641</v>
       </c>
       <c r="D13">
-        <v>0.06200015312286666</v>
+        <v>0.1209048309685485</v>
       </c>
       <c r="E13">
-        <v>0.04012851791130423</v>
+        <v>0.1216442342445632</v>
       </c>
       <c r="F13">
-        <v>1.065208766614461</v>
+        <v>1.74710128941139</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05502373659979654</v>
+        <v>0.1569927463617016</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2488102215889256</v>
+        <v>0.2906695926747886</v>
       </c>
       <c r="M13">
-        <v>0.6376822225413079</v>
+        <v>0.3833653606980292</v>
       </c>
       <c r="N13">
-        <v>0.7388338171659328</v>
+        <v>1.651206003743496</v>
       </c>
       <c r="O13">
-        <v>2.840119228558763</v>
+        <v>4.556618146208137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.600282571649416</v>
+        <v>1.741017453675568</v>
       </c>
       <c r="C14">
-        <v>0.4537890590951008</v>
+        <v>0.1997515832424881</v>
       </c>
       <c r="D14">
-        <v>0.06144048366908805</v>
+        <v>0.1208253394108709</v>
       </c>
       <c r="E14">
-        <v>0.04025639209340692</v>
+        <v>0.1217578457609623</v>
       </c>
       <c r="F14">
-        <v>1.055462309313796</v>
+        <v>1.746850972297665</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05535321154515094</v>
+        <v>0.1571641157320105</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2452944066547786</v>
+        <v>0.2899102646248224</v>
       </c>
       <c r="M14">
-        <v>0.6267301226512885</v>
+        <v>0.3804679108300704</v>
       </c>
       <c r="N14">
-        <v>0.7451406780696033</v>
+        <v>1.653980079298258</v>
       </c>
       <c r="O14">
-        <v>2.813719130471782</v>
+        <v>4.556146611760454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.56079774847035</v>
+        <v>1.730136821615588</v>
       </c>
       <c r="C15">
-        <v>0.4497517175359178</v>
+        <v>0.1984584546983115</v>
       </c>
       <c r="D15">
-        <v>0.06109859177845323</v>
+        <v>0.1207771930069796</v>
       </c>
       <c r="E15">
-        <v>0.04033550542704045</v>
+        <v>0.1218279695460973</v>
       </c>
       <c r="F15">
-        <v>1.049540349737583</v>
+        <v>1.746714738516374</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05555594842656131</v>
+        <v>0.1572697061724453</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2431451243294731</v>
+        <v>0.2894468833427339</v>
       </c>
       <c r="M15">
-        <v>0.6200298212789122</v>
+        <v>0.3786951024843646</v>
       </c>
       <c r="N15">
-        <v>0.7490330039336897</v>
+        <v>1.655690825783871</v>
       </c>
       <c r="O15">
-        <v>2.797689719213054</v>
+        <v>4.555905286154939</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.335131215354295</v>
+        <v>1.667894428470504</v>
       </c>
       <c r="C16">
-        <v>0.4266348843410981</v>
+        <v>0.1910329631686807</v>
       </c>
       <c r="D16">
-        <v>0.05915315246340214</v>
+        <v>0.120509652811009</v>
       </c>
       <c r="E16">
-        <v>0.04080081905471289</v>
+        <v>0.1222380053301944</v>
       </c>
       <c r="F16">
-        <v>1.016318846735274</v>
+        <v>1.746196070959456</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05673184274571774</v>
+        <v>0.1578843404150918</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2308915002191156</v>
+        <v>0.2868180141338996</v>
       </c>
       <c r="M16">
-        <v>0.5817526662382093</v>
+        <v>0.3685661398856155</v>
       </c>
       <c r="N16">
-        <v>0.7717776793960098</v>
+        <v>1.665671386456545</v>
       </c>
       <c r="O16">
-        <v>2.707934466969277</v>
+        <v>4.555250395097033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.19719761274871</v>
+        <v>1.629810149942443</v>
       </c>
       <c r="C17">
-        <v>0.4124682428385995</v>
+        <v>0.1864643072149761</v>
       </c>
       <c r="D17">
-        <v>0.05797166414107835</v>
+        <v>0.1203530160379529</v>
       </c>
       <c r="E17">
-        <v>0.04109681652357366</v>
+        <v>0.1224968614991333</v>
       </c>
       <c r="F17">
-        <v>0.9965538782966945</v>
+        <v>1.746111755306018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05746571437115433</v>
+        <v>0.1582699187598462</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2234282398901826</v>
+        <v>0.2852290938580353</v>
       </c>
       <c r="M17">
-        <v>0.5583714754628346</v>
+        <v>0.3623795827904885</v>
       </c>
       <c r="N17">
-        <v>0.7861142367366298</v>
+        <v>1.67195205657859</v>
       </c>
       <c r="O17">
-        <v>2.654680486853096</v>
+        <v>4.555498246597153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.118034387140824</v>
+        <v>1.607942074556036</v>
       </c>
       <c r="C18">
-        <v>0.4043243831609971</v>
+        <v>0.1838316726939695</v>
       </c>
       <c r="D18">
-        <v>0.05729637229688933</v>
+        <v>0.1202656850036163</v>
       </c>
       <c r="E18">
-        <v>0.04127089510261417</v>
+        <v>0.1226484396630845</v>
       </c>
       <c r="F18">
-        <v>0.9854030348737552</v>
+        <v>1.746149226654012</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05789238184104439</v>
+        <v>0.1584948279743981</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2191545008925146</v>
+        <v>0.2843239718655894</v>
       </c>
       <c r="M18">
-        <v>0.5449578605029188</v>
+        <v>0.3588313299504549</v>
       </c>
       <c r="N18">
-        <v>0.794497838968141</v>
+        <v>1.675622571627422</v>
       </c>
       <c r="O18">
-        <v>2.624688226756575</v>
+        <v>4.555879514251529</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.091259491514791</v>
+        <v>1.600544317460901</v>
       </c>
       <c r="C19">
-        <v>0.4015676775879626</v>
+        <v>0.1829394766156156</v>
       </c>
       <c r="D19">
-        <v>0.0570684511048043</v>
+        <v>0.1202365915505297</v>
       </c>
       <c r="E19">
-        <v>0.04133048845369913</v>
+        <v>0.1227002239412185</v>
       </c>
       <c r="F19">
-        <v>0.9816640936676606</v>
+        <v>1.746176680802236</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05803762525209777</v>
+        <v>0.1585715171109205</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2177106553474459</v>
+        <v>0.2840190248483054</v>
       </c>
       <c r="M19">
-        <v>0.540421972070753</v>
+        <v>0.3576316935522144</v>
       </c>
       <c r="N19">
-        <v>0.7973597075734347</v>
+        <v>1.676875313843368</v>
       </c>
       <c r="O19">
-        <v>2.614640505129501</v>
+        <v>4.556049601909621</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.21186273124448</v>
+        <v>1.633860468010823</v>
       </c>
       <c r="C20">
-        <v>0.4139758263982287</v>
+        <v>0.1869511528948351</v>
       </c>
       <c r="D20">
-        <v>0.05809699084927189</v>
+        <v>0.1203694046186712</v>
       </c>
       <c r="E20">
-        <v>0.04106490982154742</v>
+        <v>0.1224690273975675</v>
       </c>
       <c r="F20">
-        <v>0.9986351960496052</v>
+        <v>1.746111834010975</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05738711948534991</v>
+        <v>0.1582285489339244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2242207376931447</v>
+        <v>0.285397328909923</v>
       </c>
       <c r="M20">
-        <v>0.5608568075404889</v>
+        <v>0.3630371098282339</v>
       </c>
       <c r="N20">
-        <v>0.7845737718813695</v>
+        <v>1.671277461744999</v>
       </c>
       <c r="O20">
-        <v>2.660282847553532</v>
+        <v>4.555447156376744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.619227815645161</v>
+        <v>1.746236943879467</v>
       </c>
       <c r="C21">
-        <v>0.4557254580369943</v>
+        <v>0.200371404935396</v>
       </c>
       <c r="D21">
-        <v>0.06160467926110158</v>
+        <v>0.1208485745942411</v>
       </c>
       <c r="E21">
-        <v>0.04021866812862385</v>
+        <v>0.1217243641540016</v>
       </c>
       <c r="F21">
-        <v>1.058315019578217</v>
+        <v>1.746920934519437</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05525624404277441</v>
+        <v>0.1571136508413593</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2463261944917861</v>
+        <v>0.2901329375325048</v>
       </c>
       <c r="M21">
-        <v>0.629945301984165</v>
+        <v>0.3813185533892067</v>
       </c>
       <c r="N21">
-        <v>0.7432820969968503</v>
+        <v>1.653162860092735</v>
       </c>
       <c r="O21">
-        <v>2.821443852068597</v>
+        <v>4.556275213204657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.887289937749472</v>
+        <v>1.820001126835791</v>
       </c>
       <c r="C22">
-        <v>0.4830728675127602</v>
+        <v>0.2090980564121026</v>
       </c>
       <c r="D22">
-        <v>0.06393805361004468</v>
+        <v>0.121186134769026</v>
       </c>
       <c r="E22">
-        <v>0.03970068674432436</v>
+        <v>0.121261569406264</v>
       </c>
       <c r="F22">
-        <v>1.099445067459357</v>
+        <v>1.748214812819157</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05390486857954802</v>
+        <v>0.1564128383781567</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2609614320753479</v>
+        <v>0.2933054131346182</v>
       </c>
       <c r="M22">
-        <v>0.6754581607328376</v>
+        <v>0.3933546321384469</v>
       </c>
       <c r="N22">
-        <v>0.717593086207458</v>
+        <v>1.641840664693035</v>
       </c>
       <c r="O22">
-        <v>2.93302902128562</v>
+        <v>4.558942463405515</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.744038446373509</v>
+        <v>1.780603017806925</v>
       </c>
       <c r="C23">
-        <v>0.468470267226138</v>
+        <v>0.2044445735256204</v>
       </c>
       <c r="D23">
-        <v>0.06268879964853369</v>
+        <v>0.1210037502182857</v>
       </c>
       <c r="E23">
-        <v>0.0399738828783418</v>
+        <v>0.121506389828328</v>
       </c>
       <c r="F23">
-        <v>1.077289091294517</v>
+        <v>1.747454261913333</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05462231475100277</v>
+        <v>0.1567843316964894</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2531321389119228</v>
+        <v>0.2916051488777072</v>
       </c>
       <c r="M23">
-        <v>0.6511315999705474</v>
+        <v>0.386922774581322</v>
       </c>
       <c r="N23">
-        <v>0.7311814306714481</v>
+        <v>1.647836255007327</v>
       </c>
       <c r="O23">
-        <v>2.872872268601412</v>
+        <v>4.55732434792597</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.205232208687562</v>
+        <v>1.632029234738866</v>
       </c>
       <c r="C24">
-        <v>0.4132942458323612</v>
+        <v>0.1867310688098769</v>
       </c>
       <c r="D24">
-        <v>0.05804031833633161</v>
+        <v>0.1203619868628607</v>
       </c>
       <c r="E24">
-        <v>0.04107932268695791</v>
+        <v>0.1224816026024111</v>
       </c>
       <c r="F24">
-        <v>0.9976935730744287</v>
+        <v>1.746111530706685</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05742263742967824</v>
+        <v>0.1582472421543408</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2238623967303255</v>
+        <v>0.2853212437653241</v>
       </c>
       <c r="M24">
-        <v>0.5597331005550217</v>
+        <v>0.3627398154166244</v>
       </c>
       <c r="N24">
-        <v>0.785269776630372</v>
+        <v>1.671582260183605</v>
       </c>
       <c r="O24">
-        <v>2.657748082374468</v>
+        <v>4.555469510493737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.630494345655904</v>
+        <v>1.473187919482825</v>
       </c>
       <c r="C25">
-        <v>0.3539359692958328</v>
+        <v>0.1674387017938557</v>
       </c>
       <c r="D25">
-        <v>0.0531879477705246</v>
+        <v>0.1197754662594832</v>
       </c>
       <c r="E25">
-        <v>0.04241758860281042</v>
+        <v>0.1236364558885121</v>
       </c>
       <c r="F25">
-        <v>0.9200551832123409</v>
+        <v>1.747950084526238</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06061740426026407</v>
+        <v>0.1599451260517859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1930042340406501</v>
+        <v>0.2788792273106324</v>
       </c>
       <c r="M25">
-        <v>0.4624432978016202</v>
+        <v>0.3370413301113686</v>
       </c>
       <c r="N25">
-        <v>0.8488371051145656</v>
+        <v>1.699415296726702</v>
       </c>
       <c r="O25">
-        <v>2.449806776218452</v>
+        <v>4.562594723743416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.357478060742437</v>
+        <v>2.211372508801105</v>
       </c>
       <c r="C2">
-        <v>0.1530760410243772</v>
+        <v>0.3102506154114053</v>
       </c>
       <c r="D2">
-        <v>0.1194354720364359</v>
+        <v>0.04973947733536477</v>
       </c>
       <c r="E2">
-        <v>0.1245758532213168</v>
+        <v>0.04352366513021177</v>
       </c>
       <c r="F2">
-        <v>1.752131314218971</v>
+        <v>0.8690219586562762</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.161299038329541</v>
+        <v>0.06311680066384007</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2744277187219382</v>
+        <v>0.1707977907192557</v>
       </c>
       <c r="M2">
-        <v>0.3184569435170133</v>
+        <v>0.3916617882976965</v>
       </c>
       <c r="N2">
-        <v>1.7218215251701</v>
+        <v>0.8997916637771262</v>
       </c>
       <c r="O2">
-        <v>4.575683049327694</v>
+        <v>2.314597014460048</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.279850709967377</v>
+        <v>1.929186241949594</v>
       </c>
       <c r="C3">
-        <v>0.1432450312874494</v>
+        <v>0.2806055363769104</v>
       </c>
       <c r="D3">
-        <v>0.1192628499359962</v>
+        <v>0.04747327911674404</v>
       </c>
       <c r="E3">
-        <v>0.125268345086099</v>
+        <v>0.04434637060457769</v>
       </c>
       <c r="F3">
-        <v>1.756729400771874</v>
+        <v>0.8378340591689266</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1622816523651527</v>
+        <v>0.06490116432987136</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2715942972574581</v>
+        <v>0.1560239211479697</v>
       </c>
       <c r="M3">
-        <v>0.3060752846758419</v>
+        <v>0.3441052128441697</v>
       </c>
       <c r="N3">
-        <v>1.738201905344983</v>
+        <v>0.9367560462040743</v>
       </c>
       <c r="O3">
-        <v>4.589442455110571</v>
+        <v>2.232836678411019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.232583085629301</v>
+        <v>1.75663687332974</v>
       </c>
       <c r="C4">
-        <v>0.137161272822425</v>
+        <v>0.2623688834920728</v>
       </c>
       <c r="D4">
-        <v>0.1191855449299304</v>
+        <v>0.04611477563690158</v>
       </c>
       <c r="E4">
-        <v>0.1257211810429499</v>
+        <v>0.04488688996456469</v>
       </c>
       <c r="F4">
-        <v>1.760423353963603</v>
+        <v>0.8202298769464917</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1629171745434213</v>
+        <v>0.06604100327136697</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2699455850554813</v>
+        <v>0.1470750562751633</v>
       </c>
       <c r="M4">
-        <v>0.2985791830747075</v>
+        <v>0.3150731307622863</v>
       </c>
       <c r="N4">
-        <v>1.748849901457888</v>
+        <v>0.9606035388184466</v>
       </c>
       <c r="O4">
-        <v>4.600302111763824</v>
+        <v>2.187110376648207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.213422029166651</v>
+        <v>1.686474250383128</v>
       </c>
       <c r="C5">
-        <v>0.1346702756366653</v>
+        <v>0.2549266617843529</v>
       </c>
       <c r="D5">
-        <v>0.1191612859694118</v>
+        <v>0.04556919254303438</v>
       </c>
       <c r="E5">
-        <v>0.1259126794800829</v>
+        <v>0.04511595236539145</v>
       </c>
       <c r="F5">
-        <v>1.762147729475636</v>
+        <v>0.8134263779657616</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1631842639411922</v>
+        <v>0.06651655635136677</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2692967146946259</v>
+        <v>0.1434572491012744</v>
       </c>
       <c r="M5">
-        <v>0.2955514316987973</v>
+        <v>0.303279743800033</v>
       </c>
       <c r="N5">
-        <v>1.753337581230131</v>
+        <v>0.9706041465202269</v>
       </c>
       <c r="O5">
-        <v>4.605333945374014</v>
+        <v>2.169546648136929</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.210246482883036</v>
+        <v>1.674832262054366</v>
       </c>
       <c r="C6">
-        <v>0.1342559374007664</v>
+        <v>0.2536901888861394</v>
       </c>
       <c r="D6">
-        <v>0.1191576961640237</v>
+        <v>0.0454790756272061</v>
       </c>
       <c r="E6">
-        <v>0.1259448986475755</v>
+        <v>0.04515451646650703</v>
       </c>
       <c r="F6">
-        <v>1.762447294712274</v>
+        <v>0.8123185140962548</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1632291040971876</v>
+        <v>0.06659618774032117</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2691903621091924</v>
+        <v>0.1428582103280789</v>
       </c>
       <c r="M6">
-        <v>0.2950503120599279</v>
+        <v>0.3013235864132398</v>
       </c>
       <c r="N6">
-        <v>1.754091730599622</v>
+        <v>0.9722816101199427</v>
       </c>
       <c r="O6">
-        <v>4.606206107381212</v>
+        <v>2.166693276288782</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.232324262673018</v>
+        <v>1.755690052077028</v>
       </c>
       <c r="C7">
-        <v>0.1371277260433459</v>
+        <v>0.2622685606730784</v>
       </c>
       <c r="D7">
-        <v>0.1191851883962975</v>
+        <v>0.04610738558996275</v>
       </c>
       <c r="E7">
-        <v>0.1257237354431089</v>
+        <v>0.04488994369152044</v>
       </c>
       <c r="F7">
-        <v>1.76044572238294</v>
+        <v>0.8201366464971755</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1629207437535092</v>
+        <v>0.06604737204860767</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.269936740923626</v>
+        <v>0.1470261504906247</v>
       </c>
       <c r="M7">
-        <v>0.2985382402327161</v>
+        <v>0.3149139356270467</v>
       </c>
       <c r="N7">
-        <v>1.748909822357838</v>
+        <v>0.9607372753146599</v>
       </c>
       <c r="O7">
-        <v>4.600367517287083</v>
+        <v>2.186869244088967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330630759737573</v>
+        <v>2.113909689703917</v>
       </c>
       <c r="C8">
-        <v>0.1496962338580232</v>
+        <v>0.3000349055954246</v>
       </c>
       <c r="D8">
-        <v>0.1193700161123807</v>
+        <v>0.04895108633862577</v>
       </c>
       <c r="E8">
-        <v>0.1248088949287354</v>
+        <v>0.04379993120740755</v>
       </c>
       <c r="F8">
-        <v>1.753536082980425</v>
+        <v>0.857936375316882</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1616311702708058</v>
+        <v>0.06372283038109172</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2734319256642124</v>
+        <v>0.1656772243436322</v>
       </c>
       <c r="M8">
-        <v>0.3141658296617535</v>
+        <v>0.3752264659210667</v>
       </c>
       <c r="N8">
-        <v>1.727346996114779</v>
+        <v>0.9122937800691631</v>
       </c>
       <c r="O8">
-        <v>4.579926865676526</v>
+        <v>2.285443220432228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.526502347137637</v>
+        <v>2.823371129023599</v>
       </c>
       <c r="C9">
-        <v>0.1739620133617734</v>
+        <v>0.3739205143263007</v>
       </c>
       <c r="D9">
-        <v>0.1199588316441051</v>
+        <v>0.05480222687432956</v>
       </c>
       <c r="E9">
-        <v>0.1232336408118266</v>
+        <v>0.04194773441434219</v>
       </c>
       <c r="F9">
-        <v>1.746891606093811</v>
+        <v>0.9451955790370619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.159357114871824</v>
+        <v>0.05951821611546526</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2810040988719749</v>
+        <v>0.2033126277738475</v>
       </c>
       <c r="M9">
-        <v>0.3456458571932828</v>
+        <v>0.4950663475620516</v>
       </c>
       <c r="N9">
-        <v>1.689742833054538</v>
+        <v>0.826757711931478</v>
       </c>
       <c r="O9">
-        <v>4.558976016853336</v>
+        <v>2.516891356997462</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.672245089164278</v>
+        <v>3.350894725248054</v>
       </c>
       <c r="C10">
-        <v>0.191553616241265</v>
+        <v>0.4282520679429922</v>
       </c>
       <c r="D10">
-        <v>0.1205278997622869</v>
+        <v>0.0592885564121346</v>
       </c>
       <c r="E10">
-        <v>0.1222088324085897</v>
+        <v>0.04076756575950302</v>
       </c>
       <c r="F10">
-        <v>1.746217339310931</v>
+        <v>1.018604254084352</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.157840767748525</v>
+        <v>0.05664872341321781</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2870005086179646</v>
+        <v>0.2317457392253033</v>
       </c>
       <c r="M10">
-        <v>0.369273430470983</v>
+        <v>0.5844254826753001</v>
       </c>
       <c r="N10">
-        <v>1.664962582492912</v>
+        <v>0.7701606605174618</v>
       </c>
       <c r="O10">
-        <v>4.555254460797215</v>
+        <v>2.714099460588244</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738936320920345</v>
+        <v>3.592729425144</v>
       </c>
       <c r="C11">
-        <v>0.1995043562099568</v>
+        <v>0.4530169125960981</v>
       </c>
       <c r="D11">
-        <v>0.1208161000314618</v>
+        <v>0.06137504907160007</v>
       </c>
       <c r="E11">
-        <v>0.1217712239271433</v>
+        <v>0.04027147441508117</v>
       </c>
       <c r="F11">
-        <v>1.746823906355829</v>
+        <v>1.054327018623539</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1571842709706903</v>
+        <v>0.05539192629765655</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2898215493158602</v>
+        <v>0.2448831474993085</v>
       </c>
       <c r="M11">
-        <v>0.3801287789972534</v>
+        <v>0.6254483398375541</v>
       </c>
       <c r="N11">
-        <v>1.654306541597848</v>
+        <v>0.7458832852658333</v>
       </c>
       <c r="O11">
-        <v>4.556097645374962</v>
+        <v>2.810645483181418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.764245798480147</v>
+        <v>3.684616429920538</v>
       </c>
       <c r="C12">
-        <v>0.2025075466328019</v>
+        <v>0.4624051009522816</v>
       </c>
       <c r="D12">
-        <v>0.120929422833548</v>
+        <v>0.06217213782661446</v>
       </c>
       <c r="E12">
-        <v>0.1216096098854189</v>
+        <v>0.04008962236544189</v>
       </c>
       <c r="F12">
-        <v>1.747184865425695</v>
+        <v>1.068216736037726</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1569404467191866</v>
+        <v>0.05492307778772965</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2909031176539401</v>
+        <v>0.2498900096964149</v>
       </c>
       <c r="M12">
-        <v>0.3842545988468089</v>
+        <v>0.6410438277319201</v>
       </c>
       <c r="N12">
-        <v>1.650359984906693</v>
+        <v>0.7369116478434066</v>
       </c>
       <c r="O12">
-        <v>4.556781690891057</v>
+        <v>2.848271461922337</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.758792528258482</v>
+        <v>3.664812456551942</v>
       </c>
       <c r="C13">
-        <v>0.2018610952586641</v>
+        <v>0.4603826752892815</v>
       </c>
       <c r="D13">
-        <v>0.1209048309685485</v>
+        <v>0.06200015312274587</v>
       </c>
       <c r="E13">
-        <v>0.1216442342445632</v>
+        <v>0.04012851791130245</v>
       </c>
       <c r="F13">
-        <v>1.74710128941139</v>
+        <v>1.065208766614461</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1569927463617016</v>
+        <v>0.05502373659994531</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2906695926747886</v>
+        <v>0.2488102215888546</v>
       </c>
       <c r="M13">
-        <v>0.3833653606980292</v>
+        <v>0.6376822225413079</v>
       </c>
       <c r="N13">
-        <v>1.651206003743496</v>
+        <v>0.7388338171658759</v>
       </c>
       <c r="O13">
-        <v>4.556618146208137</v>
+        <v>2.840119228558876</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.741017453675568</v>
+        <v>3.600282571649416</v>
       </c>
       <c r="C14">
-        <v>0.1997515832424881</v>
+        <v>0.4537890590952145</v>
       </c>
       <c r="D14">
-        <v>0.1208253394108709</v>
+        <v>0.06144048366908805</v>
       </c>
       <c r="E14">
-        <v>0.1217578457609623</v>
+        <v>0.04025639209342025</v>
       </c>
       <c r="F14">
-        <v>1.746850972297665</v>
+        <v>1.055462309313768</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1571641157320105</v>
+        <v>0.0553532115450559</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2899102646248224</v>
+        <v>0.2452944066548213</v>
       </c>
       <c r="M14">
-        <v>0.3804679108300704</v>
+        <v>0.6267301226512885</v>
       </c>
       <c r="N14">
-        <v>1.653980079298258</v>
+        <v>0.7451406780695891</v>
       </c>
       <c r="O14">
-        <v>4.556146611760454</v>
+        <v>2.813719130471696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730136821615588</v>
+        <v>3.560797748470293</v>
       </c>
       <c r="C15">
-        <v>0.1984584546983115</v>
+        <v>0.4497517175358041</v>
       </c>
       <c r="D15">
-        <v>0.1207771930069796</v>
+        <v>0.06109859177833954</v>
       </c>
       <c r="E15">
-        <v>0.1218279695460973</v>
+        <v>0.040335505427052</v>
       </c>
       <c r="F15">
-        <v>1.746714738516374</v>
+        <v>1.049540349737569</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1572697061724453</v>
+        <v>0.05555594842657596</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2894468833427339</v>
+        <v>0.2431451243294305</v>
       </c>
       <c r="M15">
-        <v>0.3786951024843646</v>
+        <v>0.6200298212788908</v>
       </c>
       <c r="N15">
-        <v>1.655690825783871</v>
+        <v>0.7490330039336328</v>
       </c>
       <c r="O15">
-        <v>4.555905286154939</v>
+        <v>2.797689719213054</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.667894428470504</v>
+        <v>3.335131215354352</v>
       </c>
       <c r="C16">
-        <v>0.1910329631686807</v>
+        <v>0.4266348843412686</v>
       </c>
       <c r="D16">
-        <v>0.120509652811009</v>
+        <v>0.05915315246340214</v>
       </c>
       <c r="E16">
-        <v>0.1222380053301944</v>
+        <v>0.040800819054712</v>
       </c>
       <c r="F16">
-        <v>1.746196070959456</v>
+        <v>1.016318846735288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1578843404150918</v>
+        <v>0.05673184274571597</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2868180141338996</v>
+        <v>0.2308915002191583</v>
       </c>
       <c r="M16">
-        <v>0.3685661398856155</v>
+        <v>0.5817526662382164</v>
       </c>
       <c r="N16">
-        <v>1.665671386456545</v>
+        <v>0.7717776793960311</v>
       </c>
       <c r="O16">
-        <v>4.555250395097033</v>
+        <v>2.707934466969277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.629810149942443</v>
+        <v>3.19719761274871</v>
       </c>
       <c r="C17">
-        <v>0.1864643072149761</v>
+        <v>0.4124682428383721</v>
       </c>
       <c r="D17">
-        <v>0.1203530160379529</v>
+        <v>0.05797166414085098</v>
       </c>
       <c r="E17">
-        <v>0.1224968614991333</v>
+        <v>0.04109681652357366</v>
       </c>
       <c r="F17">
-        <v>1.746111755306018</v>
+        <v>0.9965538782966945</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1582699187598462</v>
+        <v>0.05746571437109704</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2852290938580353</v>
+        <v>0.2234282398901684</v>
       </c>
       <c r="M17">
-        <v>0.3623795827904885</v>
+        <v>0.5583714754628275</v>
       </c>
       <c r="N17">
-        <v>1.67195205657859</v>
+        <v>0.7861142367366156</v>
       </c>
       <c r="O17">
-        <v>4.555498246597153</v>
+        <v>2.654680486853124</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.607942074556036</v>
+        <v>3.118034387140995</v>
       </c>
       <c r="C18">
-        <v>0.1838316726939695</v>
+        <v>0.4043243831614802</v>
       </c>
       <c r="D18">
-        <v>0.1202656850036163</v>
+        <v>0.05729637229688933</v>
       </c>
       <c r="E18">
-        <v>0.1226484396630845</v>
+        <v>0.04127089510261328</v>
       </c>
       <c r="F18">
-        <v>1.746149226654012</v>
+        <v>0.9854030348737552</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1584948279743981</v>
+        <v>0.0578923818409427</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2843239718655894</v>
+        <v>0.219154500892472</v>
       </c>
       <c r="M18">
-        <v>0.3588313299504549</v>
+        <v>0.5449578605029188</v>
       </c>
       <c r="N18">
-        <v>1.675622571627422</v>
+        <v>0.7944978389681836</v>
       </c>
       <c r="O18">
-        <v>4.555879514251529</v>
+        <v>2.624688226756518</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.600544317460901</v>
+        <v>3.091259491514847</v>
       </c>
       <c r="C19">
-        <v>0.1829394766156156</v>
+        <v>0.4015676775878489</v>
       </c>
       <c r="D19">
-        <v>0.1202365915505297</v>
+        <v>0.05706845110486114</v>
       </c>
       <c r="E19">
-        <v>0.1227002239412185</v>
+        <v>0.04133048845368315</v>
       </c>
       <c r="F19">
-        <v>1.746176680802236</v>
+        <v>0.9816640936676748</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1585715171109205</v>
+        <v>0.05803762525221634</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2840190248483054</v>
+        <v>0.2177106553473749</v>
       </c>
       <c r="M19">
-        <v>0.3576316935522144</v>
+        <v>0.540421972070753</v>
       </c>
       <c r="N19">
-        <v>1.676875313843368</v>
+        <v>0.7973597075734347</v>
       </c>
       <c r="O19">
-        <v>4.556049601909621</v>
+        <v>2.614640505129501</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.633860468010823</v>
+        <v>3.211862731244366</v>
       </c>
       <c r="C20">
-        <v>0.1869511528948351</v>
+        <v>0.413975826398115</v>
       </c>
       <c r="D20">
-        <v>0.1203694046186712</v>
+        <v>0.0580969908491511</v>
       </c>
       <c r="E20">
-        <v>0.1224690273975675</v>
+        <v>0.04106490982153321</v>
       </c>
       <c r="F20">
-        <v>1.746111834010975</v>
+        <v>0.9986351960496194</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1582285489339244</v>
+        <v>0.05738711948533837</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.285397328909923</v>
+        <v>0.224220737693102</v>
       </c>
       <c r="M20">
-        <v>0.3630371098282339</v>
+        <v>0.5608568075404818</v>
       </c>
       <c r="N20">
-        <v>1.671277461744999</v>
+        <v>0.7845737718814334</v>
       </c>
       <c r="O20">
-        <v>4.555447156376744</v>
+        <v>2.66028284755356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.746236943879467</v>
+        <v>3.61922781564482</v>
       </c>
       <c r="C21">
-        <v>0.200371404935396</v>
+        <v>0.4557254580365395</v>
       </c>
       <c r="D21">
-        <v>0.1208485745942411</v>
+        <v>0.06160467926098079</v>
       </c>
       <c r="E21">
-        <v>0.1217243641540016</v>
+        <v>0.04021866812862207</v>
       </c>
       <c r="F21">
-        <v>1.746920934519437</v>
+        <v>1.058315019578203</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1571136508413593</v>
+        <v>0.05525624404279883</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2901329375325048</v>
+        <v>0.2463261944916724</v>
       </c>
       <c r="M21">
-        <v>0.3813185533892067</v>
+        <v>0.6299453019841934</v>
       </c>
       <c r="N21">
-        <v>1.653162860092735</v>
+        <v>0.7432820969968361</v>
       </c>
       <c r="O21">
-        <v>4.556275213204657</v>
+        <v>2.821443852068654</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.820001126835791</v>
+        <v>3.887289937749586</v>
       </c>
       <c r="C22">
-        <v>0.2090980564121026</v>
+        <v>0.4830728675124192</v>
       </c>
       <c r="D22">
-        <v>0.121186134769026</v>
+        <v>0.06393805361021521</v>
       </c>
       <c r="E22">
-        <v>0.121261569406264</v>
+        <v>0.0397006867443368</v>
       </c>
       <c r="F22">
-        <v>1.748214812819157</v>
+        <v>1.099445067459357</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1564128383781567</v>
+        <v>0.05390486857941568</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2933054131346182</v>
+        <v>0.2609614320753053</v>
       </c>
       <c r="M22">
-        <v>0.3933546321384469</v>
+        <v>0.6754581607328518</v>
       </c>
       <c r="N22">
-        <v>1.641840664693035</v>
+        <v>0.7175930862074367</v>
       </c>
       <c r="O22">
-        <v>4.558942463405515</v>
+        <v>2.93302902128562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.780603017806925</v>
+        <v>3.744038446373281</v>
       </c>
       <c r="C23">
-        <v>0.2044445735256204</v>
+        <v>0.4684702672263938</v>
       </c>
       <c r="D23">
-        <v>0.1210037502182857</v>
+        <v>0.06268879964861185</v>
       </c>
       <c r="E23">
-        <v>0.121506389828328</v>
+        <v>0.03997388287832315</v>
       </c>
       <c r="F23">
-        <v>1.747454261913333</v>
+        <v>1.077289091294503</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1567843316964894</v>
+        <v>0.05462231475107426</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2916051488777072</v>
+        <v>0.2531321389118659</v>
       </c>
       <c r="M23">
-        <v>0.386922774581322</v>
+        <v>0.6511315999705332</v>
       </c>
       <c r="N23">
-        <v>1.647836255007327</v>
+        <v>0.7311814306714695</v>
       </c>
       <c r="O23">
-        <v>4.55732434792597</v>
+        <v>2.872872268601441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.632029234738866</v>
+        <v>3.205232208687505</v>
       </c>
       <c r="C24">
-        <v>0.1867310688098769</v>
+        <v>0.4132942458323328</v>
       </c>
       <c r="D24">
-        <v>0.1203619868628607</v>
+        <v>0.05804031833621792</v>
       </c>
       <c r="E24">
-        <v>0.1224816026024111</v>
+        <v>0.04107932268695969</v>
       </c>
       <c r="F24">
-        <v>1.746111530706685</v>
+        <v>0.9976935730744003</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1582472421543408</v>
+        <v>0.05742263742967246</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2853212437653241</v>
+        <v>0.2238623967303539</v>
       </c>
       <c r="M24">
-        <v>0.3627398154166244</v>
+        <v>0.5597331005550146</v>
       </c>
       <c r="N24">
-        <v>1.671582260183605</v>
+        <v>0.7852697766303862</v>
       </c>
       <c r="O24">
-        <v>4.555469510493737</v>
+        <v>2.657748082374383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.473187919482825</v>
+        <v>2.630494345656075</v>
       </c>
       <c r="C25">
-        <v>0.1674387017938557</v>
+        <v>0.3539359692957476</v>
       </c>
       <c r="D25">
-        <v>0.1197754662594832</v>
+        <v>0.05318794777033986</v>
       </c>
       <c r="E25">
-        <v>0.1236364558885121</v>
+        <v>0.04241758860281397</v>
       </c>
       <c r="F25">
-        <v>1.747950084526238</v>
+        <v>0.9200551832123409</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1599451260517859</v>
+        <v>0.06061740426023787</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2788792273106324</v>
+        <v>0.1930042340407567</v>
       </c>
       <c r="M25">
-        <v>0.3370413301113686</v>
+        <v>0.462443297801606</v>
       </c>
       <c r="N25">
-        <v>1.699415296726702</v>
+        <v>0.8488371051145513</v>
       </c>
       <c r="O25">
-        <v>4.562594723743416</v>
+        <v>2.449806776218452</v>
       </c>
     </row>
   </sheetData>
